--- a/Calendario_Campionato.xlsx
+++ b/Calendario_Campionato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Calendario Campionato</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>14ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>1-4</t>
   </si>
   <si>
     <t>-</t>
@@ -1252,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>6</v>
@@ -1276,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1284,16 +1287,16 @@
         <v>11</v>
       </c>
       <c r="B31" s="6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>9</v>
@@ -1308,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -1316,16 +1319,16 @@
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="C32" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>12</v>
@@ -1340,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -1348,16 +1351,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="C33" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>7</v>
@@ -1372,25 +1375,25 @@
         <v>17</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="G34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
@@ -1409,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>15</v>
@@ -1424,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1441,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>6</v>
@@ -1456,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
@@ -1488,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -1505,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -1520,25 +1523,25 @@
         <v>12</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
@@ -1557,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>7</v>
@@ -1572,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
@@ -1589,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -1604,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -1621,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
@@ -1636,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
@@ -1653,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -1668,25 +1671,25 @@
         <v>6</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="G44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
@@ -1705,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
@@ -1720,7 +1723,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46">
@@ -1737,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>7</v>
@@ -1752,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -1769,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -1784,7 +1787,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48">
@@ -1801,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
@@ -1816,25 +1819,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -1853,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -1868,7 +1871,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
@@ -1885,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -1900,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
@@ -1917,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -1932,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
@@ -1949,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>9</v>
@@ -1964,25 +1967,25 @@
         <v>11</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -2001,7 +2004,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>7</v>
@@ -2016,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -2033,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>12</v>
@@ -2048,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -2065,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -2080,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -2097,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -2112,25 +2115,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -2149,7 +2152,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -2164,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
@@ -2181,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
@@ -2196,7 +2199,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -2213,7 +2216,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>6</v>
@@ -2228,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -2245,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>12</v>
@@ -2260,25 +2263,25 @@
         <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2297,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>6</v>
@@ -2312,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -2329,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>9</v>
@@ -2344,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
@@ -2361,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -2376,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68">
@@ -2393,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -2408,25 +2411,25 @@
         <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -2445,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2460,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71">
@@ -2477,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>6</v>
@@ -2492,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
@@ -2509,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>9</v>
@@ -2524,7 +2527,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
@@ -2541,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -2556,25 +2559,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -2593,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>7</v>
@@ -2608,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76">
@@ -2625,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -2640,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
@@ -2657,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>17</v>
@@ -2672,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -2689,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>12</v>
@@ -2704,25 +2707,25 @@
         <v>6</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -2741,7 +2744,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
@@ -2756,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81">
@@ -2773,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
@@ -2788,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
@@ -2805,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -2820,7 +2823,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
@@ -2837,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>12</v>
@@ -2852,25 +2855,25 @@
         <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -2889,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>6</v>
@@ -2904,7 +2907,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86">
@@ -2921,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>7</v>
@@ -2936,7 +2939,7 @@
         <v>14</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87">
@@ -2953,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -2968,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88">
@@ -2985,7 +2988,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>9</v>
@@ -3000,25 +3003,25 @@
         <v>11</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="4"/>
@@ -3037,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>7</v>
@@ -3052,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91">
@@ -3069,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>12</v>
@@ -3084,7 +3087,7 @@
         <v>11</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
@@ -3101,7 +3104,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>17</v>
@@ -3116,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93">
@@ -3133,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>14</v>
@@ -3148,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
